--- a/documents/Goldstandard_XenaStriebel_V2.xlsx
+++ b/documents/Goldstandard_XenaStriebel_V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39b1b8d5ba36f28f/Master/SemesterZwei/NLPPraktikum/PassiveToActiveWithNLP/passiveToActive/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39b1b8d5ba36f28f/Master/SemesterZwei/NLPPraktikum/PassiveToActiveWithNLP/passiveToActive/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{14C7789C-8C4A-4597-89DE-42A53BFE92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98092A78-F946-45A2-A6B7-EF6CC55FF5A9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{14C7789C-8C4A-4597-89DE-42A53BFE92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D3D014-4175-40D3-BB42-742C65BCBACE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFDE7880-DE3C-4114-9DAC-A15BD8137B0E}"/>
   </bookViews>
@@ -1451,7 +1451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1467,12 +1467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1571,9 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1892,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8C50AC-E5EE-4C3E-9878-1A5F954BDD19}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,14 +2215,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:3" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="16" t="s">
         <v>4</v>
       </c>
     </row>
